--- a/pred_ohlcv/54/2019-10-19 WAVES ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 WAVES ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -417,15 +422,18 @@
         <v>950</v>
       </c>
       <c r="E2" t="n">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F2" t="n">
-        <v>851.8132000000001</v>
+        <v>536</v>
       </c>
       <c r="G2" t="n">
-        <v>957.3666666666667</v>
+        <v>957.6</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -437,21 +445,24 @@
         <v>950</v>
       </c>
       <c r="C3" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D3" t="n">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E3" t="n">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="F3" t="n">
-        <v>3254.6882</v>
+        <v>851.8132000000001</v>
       </c>
       <c r="G3" t="n">
-        <v>957.15</v>
+        <v>957.3666666666667</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -460,24 +471,27 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C4" t="n">
-        <v>949</v>
+        <v>952</v>
       </c>
       <c r="D4" t="n">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E4" t="n">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="F4" t="n">
-        <v>2557.9568</v>
+        <v>3254.6882</v>
       </c>
       <c r="G4" t="n">
-        <v>956.9</v>
+        <v>957.15</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C5" t="n">
         <v>949</v>
       </c>
       <c r="D5" t="n">
+        <v>951</v>
+      </c>
+      <c r="E5" t="n">
         <v>949</v>
       </c>
-      <c r="E5" t="n">
-        <v>948</v>
-      </c>
       <c r="F5" t="n">
-        <v>1029.7443</v>
+        <v>2557.9568</v>
       </c>
       <c r="G5" t="n">
-        <v>956.65</v>
+        <v>956.9</v>
       </c>
       <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C6" t="n">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="D6" t="n">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E6" t="n">
         <v>948</v>
       </c>
       <c r="F6" t="n">
-        <v>741.3031999999999</v>
+        <v>1029.7443</v>
       </c>
       <c r="G6" t="n">
-        <v>956.4</v>
+        <v>956.65</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,12 +570,15 @@
         <v>948</v>
       </c>
       <c r="F7" t="n">
-        <v>440.9806</v>
+        <v>741.3031999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>956.15</v>
+        <v>956.4</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>948</v>
       </c>
       <c r="F8" t="n">
-        <v>205</v>
+        <v>440.9806</v>
       </c>
       <c r="G8" t="n">
-        <v>955.9</v>
+        <v>956.15</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -590,7 +616,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="C9" t="n">
         <v>948</v>
@@ -599,15 +625,18 @@
         <v>948</v>
       </c>
       <c r="E9" t="n">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="F9" t="n">
-        <v>3175.2408</v>
+        <v>205</v>
       </c>
       <c r="G9" t="n">
-        <v>955.6666666666666</v>
+        <v>955.9</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -616,10 +645,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C10" t="n">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="D10" t="n">
         <v>948</v>
@@ -628,12 +657,15 @@
         <v>946</v>
       </c>
       <c r="F10" t="n">
-        <v>6091.41</v>
+        <v>3175.2408</v>
       </c>
       <c r="G10" t="n">
-        <v>955.4166666666666</v>
+        <v>955.6666666666666</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -645,7 +677,7 @@
         <v>946</v>
       </c>
       <c r="C11" t="n">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="D11" t="n">
         <v>948</v>
@@ -654,12 +686,15 @@
         <v>946</v>
       </c>
       <c r="F11" t="n">
-        <v>3235.5925</v>
+        <v>6091.41</v>
       </c>
       <c r="G11" t="n">
-        <v>955.1833333333333</v>
+        <v>955.4166666666666</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -671,21 +706,24 @@
         <v>946</v>
       </c>
       <c r="C12" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D12" t="n">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="E12" t="n">
         <v>946</v>
       </c>
       <c r="F12" t="n">
-        <v>410</v>
+        <v>3235.5925</v>
       </c>
       <c r="G12" t="n">
-        <v>954.9333333333333</v>
+        <v>955.1833333333333</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -706,12 +744,15 @@
         <v>946</v>
       </c>
       <c r="F13" t="n">
-        <v>500</v>
+        <v>410</v>
       </c>
       <c r="G13" t="n">
-        <v>954.6833333333333</v>
+        <v>954.9333333333333</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -732,12 +773,15 @@
         <v>946</v>
       </c>
       <c r="F14" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="G14" t="n">
-        <v>954.4333333333333</v>
+        <v>954.6833333333333</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -752,18 +796,21 @@
         <v>946</v>
       </c>
       <c r="D15" t="n">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E15" t="n">
         <v>946</v>
       </c>
       <c r="F15" t="n">
-        <v>2430.15</v>
+        <v>200</v>
       </c>
       <c r="G15" t="n">
-        <v>954.1166666666667</v>
+        <v>954.4333333333333</v>
       </c>
       <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -778,18 +825,21 @@
         <v>946</v>
       </c>
       <c r="D16" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E16" t="n">
         <v>946</v>
       </c>
       <c r="F16" t="n">
-        <v>1831.3267</v>
+        <v>2430.15</v>
       </c>
       <c r="G16" t="n">
-        <v>953.85</v>
+        <v>954.1166666666667</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -801,21 +851,24 @@
         <v>946</v>
       </c>
       <c r="C17" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="D17" t="n">
         <v>946</v>
       </c>
       <c r="E17" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="F17" t="n">
-        <v>915.4302</v>
+        <v>1831.3267</v>
       </c>
       <c r="G17" t="n">
-        <v>953.5833333333334</v>
+        <v>953.85</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -824,24 +877,27 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="C18" t="n">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D18" t="n">
         <v>946</v>
       </c>
       <c r="E18" t="n">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F18" t="n">
-        <v>2043.4324</v>
+        <v>915.4302</v>
       </c>
       <c r="G18" t="n">
-        <v>953.3</v>
+        <v>953.5833333333334</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -853,21 +909,24 @@
         <v>944</v>
       </c>
       <c r="C19" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D19" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E19" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F19" t="n">
-        <v>2463.57</v>
+        <v>2043.4324</v>
       </c>
       <c r="G19" t="n">
-        <v>953</v>
+        <v>953.3</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -876,24 +935,27 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C20" t="n">
         <v>943</v>
       </c>
       <c r="D20" t="n">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E20" t="n">
         <v>943</v>
       </c>
       <c r="F20" t="n">
-        <v>2100</v>
+        <v>2463.57</v>
       </c>
       <c r="G20" t="n">
-        <v>952.7</v>
+        <v>953</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -905,7 +967,7 @@
         <v>943</v>
       </c>
       <c r="C21" t="n">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D21" t="n">
         <v>944</v>
@@ -914,12 +976,15 @@
         <v>943</v>
       </c>
       <c r="F21" t="n">
-        <v>1712.0947</v>
+        <v>2100</v>
       </c>
       <c r="G21" t="n">
-        <v>952.4166666666666</v>
+        <v>952.7</v>
       </c>
       <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -931,21 +996,24 @@
         <v>943</v>
       </c>
       <c r="C22" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D22" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E22" t="n">
         <v>943</v>
       </c>
       <c r="F22" t="n">
-        <v>25.6941</v>
+        <v>1712.0947</v>
       </c>
       <c r="G22" t="n">
-        <v>952.1166666666667</v>
+        <v>952.4166666666666</v>
       </c>
       <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -957,21 +1025,24 @@
         <v>943</v>
       </c>
       <c r="C23" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D23" t="n">
         <v>943</v>
       </c>
       <c r="E23" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F23" t="n">
-        <v>1674.9144</v>
+        <v>25.6941</v>
       </c>
       <c r="G23" t="n">
-        <v>951.8</v>
+        <v>952.1166666666667</v>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -983,21 +1054,24 @@
         <v>943</v>
       </c>
       <c r="C24" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D24" t="n">
         <v>943</v>
       </c>
       <c r="E24" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F24" t="n">
-        <v>211.8982</v>
+        <v>1674.9144</v>
       </c>
       <c r="G24" t="n">
-        <v>951.5166666666667</v>
+        <v>951.8</v>
       </c>
       <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1006,24 +1080,27 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C25" t="n">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D25" t="n">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E25" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F25" t="n">
-        <v>2751.7991</v>
+        <v>211.8982</v>
       </c>
       <c r="G25" t="n">
-        <v>951.25</v>
+        <v>951.5166666666667</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1032,7 +1109,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C26" t="n">
         <v>944</v>
@@ -1041,15 +1118,18 @@
         <v>944</v>
       </c>
       <c r="E26" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F26" t="n">
-        <v>4678.09</v>
+        <v>2751.7991</v>
       </c>
       <c r="G26" t="n">
-        <v>951</v>
+        <v>951.25</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1058,24 +1138,27 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
+        <v>943</v>
+      </c>
+      <c r="C27" t="n">
         <v>944</v>
       </c>
-      <c r="C27" t="n">
-        <v>942</v>
-      </c>
       <c r="D27" t="n">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E27" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="F27" t="n">
-        <v>2844.5073</v>
+        <v>4678.09</v>
       </c>
       <c r="G27" t="n">
-        <v>950.7166666666667</v>
+        <v>951</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1084,24 +1167,27 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
+        <v>944</v>
+      </c>
+      <c r="C28" t="n">
         <v>942</v>
       </c>
-      <c r="C28" t="n">
-        <v>944</v>
-      </c>
       <c r="D28" t="n">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E28" t="n">
         <v>942</v>
       </c>
       <c r="F28" t="n">
-        <v>4212.9091</v>
+        <v>2844.5073</v>
       </c>
       <c r="G28" t="n">
-        <v>950.45</v>
+        <v>950.7166666666667</v>
       </c>
       <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1110,24 +1196,27 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C29" t="n">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D29" t="n">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E29" t="n">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F29" t="n">
-        <v>4509.9</v>
+        <v>4212.9091</v>
       </c>
       <c r="G29" t="n">
-        <v>950.2333333333333</v>
+        <v>950.45</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1136,24 +1225,27 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C30" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D30" t="n">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="E30" t="n">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F30" t="n">
-        <v>901.9669</v>
+        <v>4509.9</v>
       </c>
       <c r="G30" t="n">
-        <v>950</v>
+        <v>950.2333333333333</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C31" t="n">
         <v>945</v>
       </c>
       <c r="D31" t="n">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E31" t="n">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F31" t="n">
-        <v>125</v>
+        <v>901.9669</v>
       </c>
       <c r="G31" t="n">
-        <v>949.7666666666667</v>
+        <v>950</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1194,18 +1289,21 @@
         <v>945</v>
       </c>
       <c r="D32" t="n">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E32" t="n">
         <v>945</v>
       </c>
       <c r="F32" t="n">
-        <v>450</v>
+        <v>125</v>
       </c>
       <c r="G32" t="n">
-        <v>949.5333333333333</v>
+        <v>949.7666666666667</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1217,21 +1315,24 @@
         <v>945</v>
       </c>
       <c r="C33" t="n">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="D33" t="n">
+        <v>947</v>
+      </c>
+      <c r="E33" t="n">
         <v>945</v>
       </c>
-      <c r="E33" t="n">
-        <v>944</v>
-      </c>
       <c r="F33" t="n">
-        <v>490.7118</v>
+        <v>450</v>
       </c>
       <c r="G33" t="n">
-        <v>949.2666666666667</v>
+        <v>949.5333333333333</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>945</v>
       </c>
       <c r="C34" t="n">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="D34" t="n">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E34" t="n">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F34" t="n">
-        <v>3106.8801</v>
+        <v>490.7118</v>
       </c>
       <c r="G34" t="n">
-        <v>949.05</v>
+        <v>949.2666666666667</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>943</v>
+        <v>945</v>
       </c>
       <c r="C35" t="n">
-        <v>944</v>
+        <v>946</v>
       </c>
       <c r="D35" t="n">
+        <v>946</v>
+      </c>
+      <c r="E35" t="n">
         <v>945</v>
       </c>
-      <c r="E35" t="n">
-        <v>942</v>
-      </c>
       <c r="F35" t="n">
-        <v>2191.3282</v>
+        <v>3106.8801</v>
       </c>
       <c r="G35" t="n">
-        <v>948.8</v>
+        <v>949.05</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,7 +1399,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C36" t="n">
         <v>944</v>
@@ -1304,12 +1411,15 @@
         <v>942</v>
       </c>
       <c r="F36" t="n">
-        <v>1610.5216</v>
+        <v>2191.3282</v>
       </c>
       <c r="G36" t="n">
-        <v>948.55</v>
+        <v>948.8</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,24 +1428,27 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C37" t="n">
         <v>944</v>
       </c>
       <c r="D37" t="n">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E37" t="n">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F37" t="n">
-        <v>2.1313</v>
+        <v>1610.5216</v>
       </c>
       <c r="G37" t="n">
-        <v>948.3166666666667</v>
+        <v>948.55</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,7 +1457,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="C38" t="n">
         <v>944</v>
@@ -1353,15 +1466,18 @@
         <v>944</v>
       </c>
       <c r="E38" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="F38" t="n">
-        <v>776.4496</v>
+        <v>2.1313</v>
       </c>
       <c r="G38" t="n">
-        <v>948.0833333333334</v>
+        <v>948.3166666666667</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,21 +1489,24 @@
         <v>943</v>
       </c>
       <c r="C39" t="n">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="D39" t="n">
+        <v>944</v>
+      </c>
+      <c r="E39" t="n">
         <v>943</v>
       </c>
-      <c r="E39" t="n">
-        <v>941</v>
-      </c>
       <c r="F39" t="n">
-        <v>703.0022</v>
+        <v>776.4496</v>
       </c>
       <c r="G39" t="n">
-        <v>947.8333333333334</v>
+        <v>948.0833333333334</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,24 +1515,27 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
+        <v>943</v>
+      </c>
+      <c r="C40" t="n">
         <v>941</v>
       </c>
-      <c r="C40" t="n">
-        <v>942</v>
-      </c>
       <c r="D40" t="n">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E40" t="n">
         <v>941</v>
       </c>
       <c r="F40" t="n">
-        <v>3091.127</v>
+        <v>703.0022</v>
       </c>
       <c r="G40" t="n">
-        <v>947.6166666666667</v>
+        <v>947.8333333333334</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1425,21 +1547,24 @@
         <v>941</v>
       </c>
       <c r="C41" t="n">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="D41" t="n">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E41" t="n">
         <v>941</v>
       </c>
       <c r="F41" t="n">
-        <v>323</v>
+        <v>3091.127</v>
       </c>
       <c r="G41" t="n">
-        <v>947.4</v>
+        <v>947.6166666666667</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C42" t="n">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D42" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E42" t="n">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="F42" t="n">
-        <v>190.0749</v>
+        <v>323</v>
       </c>
       <c r="G42" t="n">
-        <v>947.1666666666666</v>
+        <v>947.4</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1474,24 +1602,27 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C43" t="n">
         <v>939</v>
       </c>
       <c r="D43" t="n">
+        <v>940</v>
+      </c>
+      <c r="E43" t="n">
         <v>939</v>
       </c>
-      <c r="E43" t="n">
-        <v>938</v>
-      </c>
       <c r="F43" t="n">
-        <v>2237.846</v>
+        <v>190.0749</v>
       </c>
       <c r="G43" t="n">
-        <v>946.9333333333333</v>
+        <v>947.1666666666666</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1500,24 +1631,27 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="C44" t="n">
+        <v>939</v>
+      </c>
+      <c r="D44" t="n">
+        <v>939</v>
+      </c>
+      <c r="E44" t="n">
         <v>938</v>
       </c>
-      <c r="D44" t="n">
-        <v>938</v>
-      </c>
-      <c r="E44" t="n">
-        <v>936</v>
-      </c>
       <c r="F44" t="n">
-        <v>2042</v>
+        <v>2237.846</v>
       </c>
       <c r="G44" t="n">
-        <v>946.6833333333333</v>
+        <v>946.9333333333333</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1529,21 +1663,24 @@
         <v>937</v>
       </c>
       <c r="C45" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D45" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E45" t="n">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F45" t="n">
-        <v>183</v>
+        <v>2042</v>
       </c>
       <c r="G45" t="n">
-        <v>946.4166666666666</v>
+        <v>946.6833333333333</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1552,24 +1689,27 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="C46" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D46" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E46" t="n">
-        <v>935</v>
+        <v>937</v>
       </c>
       <c r="F46" t="n">
-        <v>906</v>
+        <v>183</v>
       </c>
       <c r="G46" t="n">
-        <v>946.15</v>
+        <v>946.4166666666666</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
+        <v>935</v>
+      </c>
+      <c r="C47" t="n">
         <v>936</v>
       </c>
-      <c r="C47" t="n">
-        <v>944</v>
-      </c>
       <c r="D47" t="n">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="E47" t="n">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F47" t="n">
-        <v>2520</v>
+        <v>906</v>
       </c>
       <c r="G47" t="n">
-        <v>946.0166666666667</v>
+        <v>946.15</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="C48" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="D48" t="n">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E48" t="n">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F48" t="n">
-        <v>821</v>
+        <v>2520</v>
       </c>
       <c r="G48" t="n">
-        <v>945.8666666666667</v>
+        <v>946.0166666666667</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1630,24 +1776,27 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C49" t="n">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="D49" t="n">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E49" t="n">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F49" t="n">
-        <v>1175.9428</v>
+        <v>821</v>
       </c>
       <c r="G49" t="n">
-        <v>945.6666666666666</v>
+        <v>945.8666666666667</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1662,18 +1811,21 @@
         <v>940</v>
       </c>
       <c r="D50" t="n">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E50" t="n">
         <v>939</v>
       </c>
       <c r="F50" t="n">
-        <v>1795.7505</v>
+        <v>1175.9428</v>
       </c>
       <c r="G50" t="n">
-        <v>945.4833333333333</v>
+        <v>945.6666666666666</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1685,21 +1837,24 @@
         <v>940</v>
       </c>
       <c r="C51" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D51" t="n">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E51" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F51" t="n">
-        <v>893.9995</v>
+        <v>1795.7505</v>
       </c>
       <c r="G51" t="n">
-        <v>945.3166666666667</v>
+        <v>945.4833333333333</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,7 +1863,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C52" t="n">
         <v>941</v>
@@ -1717,15 +1872,18 @@
         <v>941</v>
       </c>
       <c r="E52" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F52" t="n">
-        <v>50</v>
+        <v>893.9995</v>
       </c>
       <c r="G52" t="n">
-        <v>945.15</v>
+        <v>945.3166666666667</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>941</v>
       </c>
       <c r="F53" t="n">
-        <v>2745</v>
+        <v>50</v>
       </c>
       <c r="G53" t="n">
-        <v>944.9833333333333</v>
+        <v>945.15</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>941</v>
       </c>
       <c r="F54" t="n">
-        <v>100</v>
+        <v>2745</v>
       </c>
       <c r="G54" t="n">
-        <v>944.8166666666667</v>
+        <v>944.9833333333333</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>941</v>
       </c>
       <c r="F55" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
       <c r="G55" t="n">
-        <v>944.65</v>
+        <v>944.8166666666667</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>941</v>
       </c>
       <c r="F56" t="n">
-        <v>175.18</v>
+        <v>450</v>
       </c>
       <c r="G56" t="n">
-        <v>944.4833333333333</v>
+        <v>944.65</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,12 +2020,15 @@
         <v>941</v>
       </c>
       <c r="F57" t="n">
-        <v>17.7379</v>
+        <v>175.18</v>
       </c>
       <c r="G57" t="n">
-        <v>944.3166666666667</v>
+        <v>944.4833333333333</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,21 +2040,24 @@
         <v>941</v>
       </c>
       <c r="C58" t="n">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="D58" t="n">
         <v>941</v>
       </c>
       <c r="E58" t="n">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="F58" t="n">
-        <v>3649.2235</v>
+        <v>17.7379</v>
       </c>
       <c r="G58" t="n">
-        <v>944.0666666666667</v>
+        <v>944.3166666666667</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="C59" t="n">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D59" t="n">
         <v>941</v>
       </c>
       <c r="E59" t="n">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F59" t="n">
-        <v>1248.4103</v>
+        <v>3649.2235</v>
       </c>
       <c r="G59" t="n">
-        <v>943.8166666666667</v>
+        <v>944.0666666666667</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,7 +2095,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C60" t="n">
         <v>941</v>
@@ -1925,15 +2104,18 @@
         <v>941</v>
       </c>
       <c r="E60" t="n">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F60" t="n">
-        <v>1480.3039</v>
+        <v>1248.4103</v>
       </c>
       <c r="G60" t="n">
-        <v>943.65</v>
+        <v>943.8166666666667</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1942,24 +2124,27 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C61" t="n">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="D61" t="n">
+        <v>941</v>
+      </c>
+      <c r="E61" t="n">
         <v>939</v>
       </c>
-      <c r="E61" t="n">
-        <v>938</v>
-      </c>
       <c r="F61" t="n">
-        <v>1350.0965</v>
+        <v>1480.3039</v>
       </c>
       <c r="G61" t="n">
-        <v>943.45</v>
+        <v>943.65</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1971,7 +2156,7 @@
         <v>938</v>
       </c>
       <c r="C62" t="n">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D62" t="n">
         <v>939</v>
@@ -1980,12 +2165,15 @@
         <v>938</v>
       </c>
       <c r="F62" t="n">
-        <v>664</v>
+        <v>1350.0965</v>
       </c>
       <c r="G62" t="n">
-        <v>943.2666666666667</v>
+        <v>943.45</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2006,12 +2194,15 @@
         <v>938</v>
       </c>
       <c r="F63" t="n">
-        <v>2097.5189</v>
+        <v>664</v>
       </c>
       <c r="G63" t="n">
-        <v>943.05</v>
+        <v>943.2666666666667</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2020,24 +2211,27 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C64" t="n">
         <v>939</v>
       </c>
       <c r="D64" t="n">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E64" t="n">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F64" t="n">
-        <v>2690</v>
+        <v>2097.5189</v>
       </c>
       <c r="G64" t="n">
-        <v>942.8833333333333</v>
+        <v>943.05</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2049,21 +2243,24 @@
         <v>939</v>
       </c>
       <c r="C65" t="n">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="D65" t="n">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E65" t="n">
         <v>939</v>
       </c>
       <c r="F65" t="n">
-        <v>1200</v>
+        <v>2690</v>
       </c>
       <c r="G65" t="n">
-        <v>942.7833333333333</v>
+        <v>942.8833333333333</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2075,21 +2272,24 @@
         <v>939</v>
       </c>
       <c r="C66" t="n">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="D66" t="n">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="E66" t="n">
         <v>939</v>
       </c>
       <c r="F66" t="n">
-        <v>1228.59</v>
+        <v>1200</v>
       </c>
       <c r="G66" t="n">
-        <v>942.6666666666666</v>
+        <v>942.7833333333333</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,21 +2301,24 @@
         <v>939</v>
       </c>
       <c r="C67" t="n">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="D67" t="n">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="E67" t="n">
         <v>939</v>
       </c>
       <c r="F67" t="n">
-        <v>1234</v>
+        <v>1228.59</v>
       </c>
       <c r="G67" t="n">
-        <v>942.5166666666667</v>
+        <v>942.6666666666666</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,24 +2327,27 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C68" t="n">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="D68" t="n">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E68" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F68" t="n">
-        <v>1215</v>
+        <v>1234</v>
       </c>
       <c r="G68" t="n">
-        <v>942.4</v>
+        <v>942.5166666666667</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2153,21 +2359,24 @@
         <v>940</v>
       </c>
       <c r="C69" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D69" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E69" t="n">
         <v>940</v>
       </c>
       <c r="F69" t="n">
-        <v>26.4699</v>
+        <v>1215</v>
       </c>
       <c r="G69" t="n">
-        <v>942.2666666666667</v>
+        <v>942.4</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2176,24 +2385,27 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C70" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D70" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E70" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F70" t="n">
-        <v>495</v>
+        <v>26.4699</v>
       </c>
       <c r="G70" t="n">
-        <v>942.15</v>
+        <v>942.2666666666667</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>939</v>
       </c>
       <c r="F71" t="n">
-        <v>1345.0751</v>
+        <v>495</v>
       </c>
       <c r="G71" t="n">
-        <v>942.0166666666667</v>
+        <v>942.15</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2234,18 +2449,21 @@
         <v>939</v>
       </c>
       <c r="D72" t="n">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="E72" t="n">
         <v>939</v>
       </c>
       <c r="F72" t="n">
-        <v>3898.5809</v>
+        <v>1345.0751</v>
       </c>
       <c r="G72" t="n">
-        <v>941.9</v>
+        <v>942.0166666666667</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2257,7 +2475,7 @@
         <v>939</v>
       </c>
       <c r="C73" t="n">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="D73" t="n">
         <v>945</v>
@@ -2266,12 +2484,15 @@
         <v>939</v>
       </c>
       <c r="F73" t="n">
-        <v>2681.529</v>
+        <v>3898.5809</v>
       </c>
       <c r="G73" t="n">
-        <v>941.8833333333333</v>
+        <v>941.9</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C74" t="n">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="D74" t="n">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="E74" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F74" t="n">
-        <v>438.468</v>
+        <v>2681.529</v>
       </c>
       <c r="G74" t="n">
-        <v>941.7833333333333</v>
+        <v>941.8833333333333</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2318,12 +2542,15 @@
         <v>940</v>
       </c>
       <c r="F75" t="n">
-        <v>554.4104</v>
+        <v>438.468</v>
       </c>
       <c r="G75" t="n">
-        <v>941.6833333333333</v>
+        <v>941.7833333333333</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2344,12 +2571,15 @@
         <v>940</v>
       </c>
       <c r="F76" t="n">
-        <v>3140</v>
+        <v>554.4104</v>
       </c>
       <c r="G76" t="n">
-        <v>941.5833333333334</v>
+        <v>941.6833333333333</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C77" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D77" t="n">
         <v>940</v>
       </c>
       <c r="E77" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F77" t="n">
-        <v>2076</v>
+        <v>3140</v>
       </c>
       <c r="G77" t="n">
-        <v>941.4833333333333</v>
+        <v>941.5833333333334</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2387,21 +2620,24 @@
         <v>939</v>
       </c>
       <c r="C78" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D78" t="n">
         <v>940</v>
       </c>
       <c r="E78" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F78" t="n">
-        <v>1998.3805</v>
+        <v>2076</v>
       </c>
       <c r="G78" t="n">
-        <v>941.4166666666666</v>
+        <v>941.4833333333333</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,24 +2646,27 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C79" t="n">
         <v>940</v>
       </c>
       <c r="D79" t="n">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E79" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F79" t="n">
-        <v>433.1234</v>
+        <v>1998.3805</v>
       </c>
       <c r="G79" t="n">
-        <v>941.3666666666667</v>
+        <v>941.4166666666666</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2436,24 +2675,27 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C80" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D80" t="n">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E80" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F80" t="n">
-        <v>247.9454</v>
+        <v>433.1234</v>
       </c>
       <c r="G80" t="n">
-        <v>941.3333333333334</v>
+        <v>941.3666666666667</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C81" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D81" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E81" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="F81" t="n">
-        <v>45.2427</v>
+        <v>247.9454</v>
       </c>
       <c r="G81" t="n">
-        <v>941.2666666666667</v>
+        <v>941.3333333333334</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2494,18 +2739,21 @@
         <v>940</v>
       </c>
       <c r="D82" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E82" t="n">
         <v>940</v>
       </c>
       <c r="F82" t="n">
-        <v>2040.2836</v>
+        <v>45.2427</v>
       </c>
       <c r="G82" t="n">
-        <v>941.2166666666667</v>
+        <v>941.2666666666667</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2520,18 +2768,21 @@
         <v>940</v>
       </c>
       <c r="D83" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="E83" t="n">
         <v>940</v>
       </c>
       <c r="F83" t="n">
-        <v>144.3726</v>
+        <v>2040.2836</v>
       </c>
       <c r="G83" t="n">
-        <v>941.1833333333333</v>
+        <v>941.2166666666667</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2552,12 +2803,15 @@
         <v>940</v>
       </c>
       <c r="F84" t="n">
-        <v>100</v>
+        <v>144.3726</v>
       </c>
       <c r="G84" t="n">
-        <v>941.1333333333333</v>
+        <v>941.1833333333333</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2578,12 +2832,15 @@
         <v>940</v>
       </c>
       <c r="F85" t="n">
-        <v>237.402</v>
+        <v>100</v>
       </c>
       <c r="G85" t="n">
-        <v>941.0666666666667</v>
+        <v>941.1333333333333</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2604,12 +2861,15 @@
         <v>940</v>
       </c>
       <c r="F86" t="n">
-        <v>90.0119</v>
+        <v>237.402</v>
       </c>
       <c r="G86" t="n">
-        <v>941</v>
+        <v>941.0666666666667</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>940</v>
       </c>
       <c r="F87" t="n">
-        <v>319.1489</v>
+        <v>90.0119</v>
       </c>
       <c r="G87" t="n">
-        <v>940.9666666666667</v>
+        <v>941</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>940</v>
       </c>
       <c r="F88" t="n">
-        <v>1079.083</v>
+        <v>319.1489</v>
       </c>
       <c r="G88" t="n">
-        <v>940.9</v>
+        <v>940.9666666666667</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>940</v>
       </c>
       <c r="F89" t="n">
-        <v>125.7199</v>
+        <v>1079.083</v>
       </c>
       <c r="G89" t="n">
-        <v>940.7833333333333</v>
+        <v>940.9</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>940</v>
       </c>
       <c r="F90" t="n">
-        <v>1756.9999</v>
+        <v>125.7199</v>
       </c>
       <c r="G90" t="n">
-        <v>940.7</v>
+        <v>940.7833333333333</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2734,12 +3006,15 @@
         <v>940</v>
       </c>
       <c r="F91" t="n">
-        <v>277.23</v>
+        <v>1756.9999</v>
       </c>
       <c r="G91" t="n">
-        <v>940.6166666666667</v>
+        <v>940.7</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2760,12 +3035,15 @@
         <v>940</v>
       </c>
       <c r="F92" t="n">
-        <v>56.3062</v>
+        <v>277.23</v>
       </c>
       <c r="G92" t="n">
-        <v>940.5333333333333</v>
+        <v>940.6166666666667</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>940</v>
       </c>
       <c r="F93" t="n">
-        <v>267.1998</v>
+        <v>56.3062</v>
       </c>
       <c r="G93" t="n">
-        <v>940.4666666666667</v>
+        <v>940.5333333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,24 +3081,27 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C94" t="n">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="D94" t="n">
         <v>940</v>
       </c>
       <c r="E94" t="n">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="F94" t="n">
-        <v>4337.8116</v>
+        <v>267.1998</v>
       </c>
       <c r="G94" t="n">
-        <v>940.3166666666667</v>
+        <v>940.4666666666667</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2826,24 +3110,27 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
+        <v>939</v>
+      </c>
+      <c r="C95" t="n">
         <v>937</v>
       </c>
-      <c r="C95" t="n">
-        <v>938</v>
-      </c>
       <c r="D95" t="n">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E95" t="n">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F95" t="n">
-        <v>540.0236</v>
+        <v>4337.8116</v>
       </c>
       <c r="G95" t="n">
-        <v>940.2166666666667</v>
+        <v>940.3166666666667</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2852,24 +3139,27 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C96" t="n">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="D96" t="n">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="E96" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F96" t="n">
-        <v>436.5834</v>
+        <v>540.0236</v>
       </c>
       <c r="G96" t="n">
-        <v>940.0833333333334</v>
+        <v>940.2166666666667</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>936</v>
       </c>
       <c r="F97" t="n">
-        <v>210.31</v>
+        <v>436.5834</v>
       </c>
       <c r="G97" t="n">
-        <v>939.95</v>
+        <v>940.0833333333334</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>936</v>
       </c>
       <c r="F98" t="n">
-        <v>516.7092</v>
+        <v>210.31</v>
       </c>
       <c r="G98" t="n">
-        <v>939.8166666666667</v>
+        <v>939.95</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>934</v>
+        <v>936</v>
       </c>
       <c r="C99" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="D99" t="n">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E99" t="n">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="F99" t="n">
-        <v>904.1319999999999</v>
+        <v>516.7092</v>
       </c>
       <c r="G99" t="n">
-        <v>939.7166666666667</v>
+        <v>939.8166666666667</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2959,21 +3258,24 @@
         <v>934</v>
       </c>
       <c r="C100" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D100" t="n">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="E100" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F100" t="n">
-        <v>2212.2013</v>
+        <v>904.1319999999999</v>
       </c>
       <c r="G100" t="n">
-        <v>939.55</v>
+        <v>939.7166666666667</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2982,24 +3284,27 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C101" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D101" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="E101" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F101" t="n">
-        <v>2184.7996</v>
+        <v>2212.2013</v>
       </c>
       <c r="G101" t="n">
-        <v>939.3833333333333</v>
+        <v>939.55</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C102" t="n">
         <v>931</v>
       </c>
       <c r="D102" t="n">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="E102" t="n">
         <v>931</v>
       </c>
       <c r="F102" t="n">
-        <v>225</v>
+        <v>2184.7996</v>
       </c>
       <c r="G102" t="n">
-        <v>939.25</v>
+        <v>939.3833333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C103" t="n">
         <v>931</v>
       </c>
       <c r="D103" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E103" t="n">
         <v>931</v>
       </c>
       <c r="F103" t="n">
-        <v>803.753</v>
+        <v>225</v>
       </c>
       <c r="G103" t="n">
-        <v>939.1166666666667</v>
+        <v>939.25</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3060,24 +3371,27 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="C104" t="n">
         <v>931</v>
       </c>
       <c r="D104" t="n">
+        <v>932</v>
+      </c>
+      <c r="E104" t="n">
         <v>931</v>
       </c>
-      <c r="E104" t="n">
-        <v>930</v>
-      </c>
       <c r="F104" t="n">
-        <v>1398.4384</v>
+        <v>803.753</v>
       </c>
       <c r="G104" t="n">
-        <v>939</v>
+        <v>939.1166666666667</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,7 +3403,7 @@
         <v>930</v>
       </c>
       <c r="C105" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D105" t="n">
         <v>931</v>
@@ -3098,12 +3412,15 @@
         <v>930</v>
       </c>
       <c r="F105" t="n">
-        <v>3837.1285</v>
+        <v>1398.4384</v>
       </c>
       <c r="G105" t="n">
-        <v>938.8833333333333</v>
+        <v>939</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3118,18 +3435,21 @@
         <v>930</v>
       </c>
       <c r="D106" t="n">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="E106" t="n">
         <v>930</v>
       </c>
       <c r="F106" t="n">
-        <v>2545</v>
+        <v>3837.1285</v>
       </c>
       <c r="G106" t="n">
-        <v>938.7833333333333</v>
+        <v>938.8833333333333</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3141,7 +3461,7 @@
         <v>930</v>
       </c>
       <c r="C107" t="n">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="D107" t="n">
         <v>936</v>
@@ -3150,12 +3470,15 @@
         <v>930</v>
       </c>
       <c r="F107" t="n">
-        <v>2365</v>
+        <v>2545</v>
       </c>
       <c r="G107" t="n">
-        <v>938.65</v>
+        <v>938.7833333333333</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,24 +3487,27 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C108" t="n">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="D108" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="E108" t="n">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F108" t="n">
-        <v>3475</v>
+        <v>2365</v>
       </c>
       <c r="G108" t="n">
-        <v>938.45</v>
+        <v>938.65</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,24 +3516,27 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="C109" t="n">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="D109" t="n">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E109" t="n">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F109" t="n">
-        <v>3750</v>
+        <v>3475</v>
       </c>
       <c r="G109" t="n">
-        <v>938.4166666666666</v>
+        <v>938.45</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="C110" t="n">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="D110" t="n">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="E110" t="n">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="F110" t="n">
-        <v>960.447</v>
+        <v>3750</v>
       </c>
       <c r="G110" t="n">
-        <v>938.3166666666667</v>
+        <v>938.4166666666666</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
+        <v>935</v>
+      </c>
+      <c r="C111" t="n">
         <v>934</v>
-      </c>
-      <c r="C111" t="n">
-        <v>933</v>
       </c>
       <c r="D111" t="n">
         <v>935</v>
       </c>
       <c r="E111" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F111" t="n">
-        <v>238.69</v>
+        <v>960.447</v>
       </c>
       <c r="G111" t="n">
-        <v>938.1833333333333</v>
+        <v>938.3166666666667</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3268,24 +3603,27 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>932</v>
+        <v>934</v>
       </c>
       <c r="C112" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D112" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E112" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F112" t="n">
-        <v>486</v>
+        <v>238.69</v>
       </c>
       <c r="G112" t="n">
-        <v>938.0333333333333</v>
+        <v>938.1833333333333</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>932</v>
       </c>
       <c r="F113" t="n">
-        <v>1459</v>
+        <v>486</v>
       </c>
       <c r="G113" t="n">
-        <v>937.8833333333333</v>
+        <v>938.0333333333333</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3323,21 +3664,24 @@
         <v>932</v>
       </c>
       <c r="C114" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D114" t="n">
         <v>932</v>
       </c>
       <c r="E114" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F114" t="n">
-        <v>2317.2011</v>
+        <v>1459</v>
       </c>
       <c r="G114" t="n">
-        <v>937.7166666666667</v>
+        <v>937.8833333333333</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3346,24 +3690,27 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
+        <v>932</v>
+      </c>
+      <c r="C115" t="n">
         <v>931</v>
       </c>
-      <c r="C115" t="n">
-        <v>933</v>
-      </c>
       <c r="D115" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E115" t="n">
         <v>931</v>
       </c>
       <c r="F115" t="n">
-        <v>1587.2482</v>
+        <v>2317.2011</v>
       </c>
       <c r="G115" t="n">
-        <v>937.5833333333334</v>
+        <v>937.7166666666667</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3372,7 +3719,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C116" t="n">
         <v>933</v>
@@ -3381,15 +3728,18 @@
         <v>933</v>
       </c>
       <c r="E116" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F116" t="n">
-        <v>1903.8974</v>
+        <v>1587.2482</v>
       </c>
       <c r="G116" t="n">
-        <v>937.45</v>
+        <v>937.5833333333334</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3398,24 +3748,27 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
+        <v>932</v>
+      </c>
+      <c r="C117" t="n">
         <v>933</v>
       </c>
-      <c r="C117" t="n">
-        <v>934</v>
-      </c>
       <c r="D117" t="n">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E117" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F117" t="n">
-        <v>1042.5606</v>
+        <v>1903.8974</v>
       </c>
       <c r="G117" t="n">
-        <v>937.3333333333334</v>
+        <v>937.45</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3427,7 +3780,7 @@
         <v>933</v>
       </c>
       <c r="C118" t="n">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D118" t="n">
         <v>934</v>
@@ -3436,12 +3789,15 @@
         <v>933</v>
       </c>
       <c r="F118" t="n">
-        <v>1822.3776</v>
+        <v>1042.5606</v>
       </c>
       <c r="G118" t="n">
-        <v>937.2833333333333</v>
+        <v>937.3333333333334</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3450,24 +3806,27 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C119" t="n">
         <v>933</v>
       </c>
       <c r="D119" t="n">
+        <v>934</v>
+      </c>
+      <c r="E119" t="n">
         <v>933</v>
       </c>
-      <c r="E119" t="n">
-        <v>932</v>
-      </c>
       <c r="F119" t="n">
-        <v>2400</v>
+        <v>1822.3776</v>
       </c>
       <c r="G119" t="n">
-        <v>937.15</v>
+        <v>937.2833333333333</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3479,21 +3838,24 @@
         <v>932</v>
       </c>
       <c r="C120" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D120" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E120" t="n">
         <v>932</v>
       </c>
       <c r="F120" t="n">
-        <v>379.8276</v>
+        <v>2400</v>
       </c>
       <c r="G120" t="n">
-        <v>937</v>
+        <v>937.15</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,12 +3876,15 @@
         <v>932</v>
       </c>
       <c r="F121" t="n">
-        <v>319.9561</v>
+        <v>379.8276</v>
       </c>
       <c r="G121" t="n">
-        <v>936.9</v>
+        <v>937</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3537,15 +3902,18 @@
         <v>932</v>
       </c>
       <c r="E122" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F122" t="n">
-        <v>1001.862</v>
+        <v>319.9561</v>
       </c>
       <c r="G122" t="n">
-        <v>936.7833333333333</v>
+        <v>936.9</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3557,21 +3925,24 @@
         <v>932</v>
       </c>
       <c r="C123" t="n">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D123" t="n">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="E123" t="n">
         <v>931</v>
       </c>
       <c r="F123" t="n">
-        <v>3243.4844</v>
+        <v>1001.862</v>
       </c>
       <c r="G123" t="n">
-        <v>936.7333333333333</v>
+        <v>936.7833333333333</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,24 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C124" t="n">
-        <v>932</v>
+        <v>936</v>
       </c>
       <c r="D124" t="n">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="E124" t="n">
         <v>931</v>
       </c>
       <c r="F124" t="n">
-        <v>1283.6936</v>
+        <v>3243.4844</v>
       </c>
       <c r="G124" t="n">
-        <v>936.6166666666667</v>
+        <v>936.7333333333333</v>
       </c>
       <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3606,24 +3980,27 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C125" t="n">
         <v>932</v>
       </c>
       <c r="D125" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E125" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F125" t="n">
-        <v>1728.6874</v>
+        <v>1283.6936</v>
       </c>
       <c r="G125" t="n">
-        <v>936.4333333333333</v>
+        <v>936.6166666666667</v>
       </c>
       <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3638,18 +4015,21 @@
         <v>932</v>
       </c>
       <c r="D126" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E126" t="n">
         <v>932</v>
       </c>
       <c r="F126" t="n">
-        <v>1993.2903</v>
+        <v>1728.6874</v>
       </c>
       <c r="G126" t="n">
-        <v>936.2833333333333</v>
+        <v>936.4333333333333</v>
       </c>
       <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3661,21 +4041,24 @@
         <v>932</v>
       </c>
       <c r="C127" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D127" t="n">
         <v>933</v>
       </c>
       <c r="E127" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F127" t="n">
-        <v>2935.3297</v>
+        <v>1993.2903</v>
       </c>
       <c r="G127" t="n">
-        <v>936.15</v>
+        <v>936.2833333333333</v>
       </c>
       <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3687,21 +4070,24 @@
         <v>932</v>
       </c>
       <c r="C128" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D128" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E128" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F128" t="n">
-        <v>1410.956</v>
+        <v>2935.3297</v>
       </c>
       <c r="G128" t="n">
-        <v>936</v>
+        <v>936.15</v>
       </c>
       <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3722,12 +4108,15 @@
         <v>932</v>
       </c>
       <c r="F129" t="n">
-        <v>761.1022</v>
+        <v>1410.956</v>
       </c>
       <c r="G129" t="n">
-        <v>935.8666666666667</v>
+        <v>936</v>
       </c>
       <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3748,12 +4137,15 @@
         <v>932</v>
       </c>
       <c r="F130" t="n">
-        <v>1900</v>
+        <v>761.1022</v>
       </c>
       <c r="G130" t="n">
-        <v>935.75</v>
+        <v>935.8666666666667</v>
       </c>
       <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3774,12 +4166,15 @@
         <v>932</v>
       </c>
       <c r="F131" t="n">
-        <v>812.6093</v>
+        <v>1900</v>
       </c>
       <c r="G131" t="n">
-        <v>935.6333333333333</v>
+        <v>935.75</v>
       </c>
       <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3788,24 +4183,27 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C132" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D132" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="E132" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="F132" t="n">
-        <v>235.608</v>
+        <v>812.6093</v>
       </c>
       <c r="G132" t="n">
-        <v>935.5</v>
+        <v>935.6333333333333</v>
       </c>
       <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3814,24 +4212,27 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C133" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D133" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="E133" t="n">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F133" t="n">
-        <v>180</v>
+        <v>235.608</v>
       </c>
       <c r="G133" t="n">
-        <v>935.2833333333333</v>
+        <v>935.5</v>
       </c>
       <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3846,18 +4247,21 @@
         <v>932</v>
       </c>
       <c r="D134" t="n">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="E134" t="n">
         <v>932</v>
       </c>
       <c r="F134" t="n">
-        <v>3178.9453</v>
+        <v>180</v>
       </c>
       <c r="G134" t="n">
-        <v>935.15</v>
+        <v>935.2833333333333</v>
       </c>
       <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3872,18 +4276,21 @@
         <v>932</v>
       </c>
       <c r="D135" t="n">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="E135" t="n">
         <v>932</v>
       </c>
       <c r="F135" t="n">
-        <v>831</v>
+        <v>3178.9453</v>
       </c>
       <c r="G135" t="n">
-        <v>935.0166666666667</v>
+        <v>935.15</v>
       </c>
       <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3892,24 +4299,27 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C136" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D136" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E136" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F136" t="n">
-        <v>6.7451</v>
+        <v>831</v>
       </c>
       <c r="G136" t="n">
-        <v>934.9</v>
+        <v>935.0166666666667</v>
       </c>
       <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3930,12 +4340,15 @@
         <v>933</v>
       </c>
       <c r="F137" t="n">
-        <v>27.585</v>
+        <v>6.7451</v>
       </c>
       <c r="G137" t="n">
-        <v>934.8</v>
+        <v>934.9</v>
       </c>
       <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3956,12 +4369,15 @@
         <v>933</v>
       </c>
       <c r="F138" t="n">
-        <v>201.2158</v>
+        <v>27.585</v>
       </c>
       <c r="G138" t="n">
-        <v>934.6833333333333</v>
+        <v>934.8</v>
       </c>
       <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3970,24 +4386,27 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C139" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D139" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E139" t="n">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="F139" t="n">
-        <v>589</v>
+        <v>201.2158</v>
       </c>
       <c r="G139" t="n">
-        <v>934.55</v>
+        <v>934.6833333333333</v>
       </c>
       <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4008,12 +4427,15 @@
         <v>932</v>
       </c>
       <c r="F140" t="n">
-        <v>794.7227</v>
+        <v>589</v>
       </c>
       <c r="G140" t="n">
-        <v>934.4</v>
+        <v>934.55</v>
       </c>
       <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4034,12 +4456,15 @@
         <v>932</v>
       </c>
       <c r="F141" t="n">
-        <v>693.2936999999999</v>
+        <v>794.7227</v>
       </c>
       <c r="G141" t="n">
-        <v>934.2666666666667</v>
+        <v>934.4</v>
       </c>
       <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4060,12 +4485,15 @@
         <v>932</v>
       </c>
       <c r="F142" t="n">
-        <v>123.3325</v>
+        <v>693.2936999999999</v>
       </c>
       <c r="G142" t="n">
-        <v>934.1333333333333</v>
+        <v>934.2666666666667</v>
       </c>
       <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4086,12 +4514,15 @@
         <v>932</v>
       </c>
       <c r="F143" t="n">
-        <v>773.2462</v>
+        <v>123.3325</v>
       </c>
       <c r="G143" t="n">
-        <v>934</v>
+        <v>934.1333333333333</v>
       </c>
       <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4112,12 +4543,15 @@
         <v>932</v>
       </c>
       <c r="F144" t="n">
-        <v>471.1934</v>
+        <v>773.2462</v>
       </c>
       <c r="G144" t="n">
-        <v>933.8666666666667</v>
+        <v>934</v>
       </c>
       <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4138,12 +4572,15 @@
         <v>932</v>
       </c>
       <c r="F145" t="n">
-        <v>280.0636</v>
+        <v>471.1934</v>
       </c>
       <c r="G145" t="n">
-        <v>933.7333333333333</v>
+        <v>933.8666666666667</v>
       </c>
       <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4164,12 +4601,15 @@
         <v>932</v>
       </c>
       <c r="F146" t="n">
-        <v>790.0544</v>
+        <v>280.0636</v>
       </c>
       <c r="G146" t="n">
-        <v>933.6</v>
+        <v>933.7333333333333</v>
       </c>
       <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4190,12 +4630,15 @@
         <v>932</v>
       </c>
       <c r="F147" t="n">
-        <v>80.4678</v>
+        <v>790.0544</v>
       </c>
       <c r="G147" t="n">
-        <v>933.4666666666667</v>
+        <v>933.6</v>
       </c>
       <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4207,21 +4650,24 @@
         <v>932</v>
       </c>
       <c r="C148" t="n">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="D148" t="n">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E148" t="n">
         <v>932</v>
       </c>
       <c r="F148" t="n">
-        <v>3866.298</v>
+        <v>80.4678</v>
       </c>
       <c r="G148" t="n">
-        <v>933.3833333333333</v>
+        <v>933.4666666666667</v>
       </c>
       <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4233,21 +4679,24 @@
         <v>932</v>
       </c>
       <c r="C149" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D149" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E149" t="n">
         <v>932</v>
       </c>
       <c r="F149" t="n">
-        <v>533.0182</v>
+        <v>3866.298</v>
       </c>
       <c r="G149" t="n">
-        <v>933.25</v>
+        <v>933.3833333333333</v>
       </c>
       <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4268,12 +4717,15 @@
         <v>932</v>
       </c>
       <c r="F150" t="n">
-        <v>582</v>
+        <v>533.0182</v>
       </c>
       <c r="G150" t="n">
-        <v>933.1166666666667</v>
+        <v>933.25</v>
       </c>
       <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4285,21 +4737,24 @@
         <v>932</v>
       </c>
       <c r="C151" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D151" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E151" t="n">
         <v>932</v>
       </c>
       <c r="F151" t="n">
-        <v>1049.0706</v>
+        <v>582</v>
       </c>
       <c r="G151" t="n">
-        <v>933</v>
+        <v>933.1166666666667</v>
       </c>
       <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4311,21 +4766,24 @@
         <v>932</v>
       </c>
       <c r="C152" t="n">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="D152" t="n">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="E152" t="n">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="F152" t="n">
-        <v>6931.9543</v>
+        <v>1049.0706</v>
       </c>
       <c r="G152" t="n">
-        <v>932.9166666666666</v>
+        <v>933</v>
       </c>
       <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4334,24 +4792,27 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C153" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="D153" t="n">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="E153" t="n">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F153" t="n">
-        <v>1244</v>
+        <v>6931.9543</v>
       </c>
       <c r="G153" t="n">
-        <v>932.7833333333333</v>
+        <v>932.9166666666666</v>
       </c>
       <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4360,25 +4821,28 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="C154" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D154" t="n">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E154" t="n">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F154" t="n">
-        <v>200</v>
+        <v>1244</v>
       </c>
       <c r="G154" t="n">
-        <v>932.7166666666667</v>
+        <v>932.7833333333333</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -4389,22 +4853,25 @@
         <v>933</v>
       </c>
       <c r="C155" t="n">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D155" t="n">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E155" t="n">
         <v>933</v>
       </c>
       <c r="F155" t="n">
-        <v>570</v>
+        <v>200</v>
       </c>
       <c r="G155" t="n">
-        <v>932.65</v>
+        <v>932.7166666666667</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -4412,24 +4879,27 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
+        <v>933</v>
+      </c>
+      <c r="C156" t="n">
         <v>934</v>
       </c>
-      <c r="C156" t="n">
-        <v>939</v>
-      </c>
       <c r="D156" t="n">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E156" t="n">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F156" t="n">
-        <v>655</v>
+        <v>570</v>
       </c>
       <c r="G156" t="n">
-        <v>932.7</v>
+        <v>932.65</v>
       </c>
       <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4438,7 +4908,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C157" t="n">
         <v>939</v>
@@ -4447,15 +4917,18 @@
         <v>939</v>
       </c>
       <c r="E157" t="n">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="F157" t="n">
-        <v>2603</v>
+        <v>655</v>
       </c>
       <c r="G157" t="n">
-        <v>932.75</v>
+        <v>932.7</v>
       </c>
       <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4467,22 +4940,25 @@
         <v>938</v>
       </c>
       <c r="C158" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D158" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E158" t="n">
         <v>938</v>
       </c>
       <c r="F158" t="n">
-        <v>20</v>
+        <v>2603</v>
       </c>
       <c r="G158" t="n">
-        <v>932.7833333333333</v>
+        <v>932.75</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -4502,12 +4978,15 @@
         <v>938</v>
       </c>
       <c r="F159" t="n">
-        <v>360.7909</v>
+        <v>20</v>
       </c>
       <c r="G159" t="n">
-        <v>932.8333333333334</v>
+        <v>932.7833333333333</v>
       </c>
       <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4516,24 +4995,27 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="C160" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D160" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="E160" t="n">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F160" t="n">
-        <v>1</v>
+        <v>360.7909</v>
       </c>
       <c r="G160" t="n">
-        <v>932.9666666666667</v>
+        <v>932.8333333333334</v>
       </c>
       <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4542,24 +5024,27 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="C161" t="n">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D161" t="n">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="E161" t="n">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="F161" t="n">
-        <v>44.2108</v>
+        <v>1</v>
       </c>
       <c r="G161" t="n">
-        <v>933.0833333333334</v>
+        <v>932.9666666666667</v>
       </c>
       <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4568,24 +5053,27 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C162" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D162" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E162" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F162" t="n">
-        <v>1411.0732</v>
+        <v>44.2108</v>
       </c>
       <c r="G162" t="n">
-        <v>933.1833333333333</v>
+        <v>933.0833333333334</v>
       </c>
       <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4594,24 +5082,27 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C163" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="D163" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="E163" t="n">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="F163" t="n">
-        <v>2116.6098</v>
+        <v>1411.0732</v>
       </c>
       <c r="G163" t="n">
-        <v>933.2666666666667</v>
+        <v>933.1833333333333</v>
       </c>
       <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4620,24 +5111,27 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C164" t="n">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="D164" t="n">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E164" t="n">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="F164" t="n">
-        <v>1674.838</v>
+        <v>2116.6098</v>
       </c>
       <c r="G164" t="n">
-        <v>933.4</v>
+        <v>933.2666666666667</v>
       </c>
       <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4646,24 +5140,27 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C165" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D165" t="n">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E165" t="n">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="F165" t="n">
-        <v>512.3115</v>
+        <v>1674.838</v>
       </c>
       <c r="G165" t="n">
-        <v>933.5333333333333</v>
+        <v>933.4</v>
       </c>
       <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4672,24 +5169,27 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="C166" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D166" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="E166" t="n">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="F166" t="n">
-        <v>28.0206</v>
+        <v>512.3115</v>
       </c>
       <c r="G166" t="n">
-        <v>933.65</v>
+        <v>933.5333333333333</v>
       </c>
       <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4698,24 +5198,27 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="C167" t="n">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D167" t="n">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="E167" t="n">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="F167" t="n">
-        <v>130</v>
+        <v>28.0206</v>
       </c>
       <c r="G167" t="n">
-        <v>933.7166666666667</v>
+        <v>933.65</v>
       </c>
       <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4724,24 +5227,27 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C168" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D168" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="E168" t="n">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F168" t="n">
-        <v>315.95</v>
+        <v>130</v>
       </c>
       <c r="G168" t="n">
-        <v>933.85</v>
+        <v>933.7166666666667</v>
       </c>
       <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4750,24 +5256,27 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C169" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D169" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E169" t="n">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F169" t="n">
-        <v>99.468</v>
+        <v>315.95</v>
       </c>
       <c r="G169" t="n">
-        <v>933.8833333333333</v>
+        <v>933.85</v>
       </c>
       <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4788,12 +5297,15 @@
         <v>940</v>
       </c>
       <c r="F170" t="n">
-        <v>1731.99</v>
+        <v>99.468</v>
       </c>
       <c r="G170" t="n">
-        <v>933.9833333333333</v>
+        <v>933.8833333333333</v>
       </c>
       <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4814,12 +5326,15 @@
         <v>940</v>
       </c>
       <c r="F171" t="n">
-        <v>425.6198</v>
+        <v>1731.99</v>
       </c>
       <c r="G171" t="n">
-        <v>934.1</v>
+        <v>933.9833333333333</v>
       </c>
       <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4828,24 +5343,27 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C172" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D172" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E172" t="n">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F172" t="n">
-        <v>491.7363</v>
+        <v>425.6198</v>
       </c>
       <c r="G172" t="n">
-        <v>934.25</v>
+        <v>934.1</v>
       </c>
       <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4854,24 +5372,27 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C173" t="n">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D173" t="n">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="E173" t="n">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F173" t="n">
-        <v>37.219</v>
+        <v>491.7363</v>
       </c>
       <c r="G173" t="n">
-        <v>934.4333333333333</v>
+        <v>934.25</v>
       </c>
       <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4880,24 +5401,27 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C174" t="n">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="D174" t="n">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="E174" t="n">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="F174" t="n">
-        <v>725</v>
+        <v>37.219</v>
       </c>
       <c r="G174" t="n">
-        <v>934.7</v>
+        <v>934.4333333333333</v>
       </c>
       <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4906,24 +5430,27 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="C175" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="D175" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="E175" t="n">
-        <v>945</v>
+        <v>947</v>
       </c>
       <c r="F175" t="n">
-        <v>546.8457</v>
+        <v>725</v>
       </c>
       <c r="G175" t="n">
-        <v>934.9</v>
+        <v>934.7</v>
       </c>
       <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4932,25 +5459,28 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C176" t="n">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D176" t="n">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E176" t="n">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F176" t="n">
-        <v>176.258</v>
+        <v>546.8457</v>
       </c>
       <c r="G176" t="n">
-        <v>935.1333333333333</v>
+        <v>934.9</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -4970,12 +5500,15 @@
         <v>947</v>
       </c>
       <c r="F177" t="n">
-        <v>201.6823</v>
+        <v>176.258</v>
       </c>
       <c r="G177" t="n">
-        <v>935.35</v>
+        <v>935.1333333333333</v>
       </c>
       <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4996,13 +5529,16 @@
         <v>947</v>
       </c>
       <c r="F178" t="n">
-        <v>319.5078</v>
+        <v>201.6823</v>
       </c>
       <c r="G178" t="n">
-        <v>935.5833333333334</v>
+        <v>935.35</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -5013,22 +5549,25 @@
         <v>947</v>
       </c>
       <c r="C179" t="n">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D179" t="n">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E179" t="n">
         <v>947</v>
       </c>
       <c r="F179" t="n">
-        <v>106.357</v>
+        <v>319.5078</v>
       </c>
       <c r="G179" t="n">
-        <v>935.8333333333334</v>
+        <v>935.5833333333334</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -5036,7 +5575,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C180" t="n">
         <v>948</v>
@@ -5045,535 +5584,18 @@
         <v>948</v>
       </c>
       <c r="E180" t="n">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="F180" t="n">
-        <v>150</v>
+        <v>106.357</v>
       </c>
       <c r="G180" t="n">
-        <v>936.1</v>
+        <v>935.8333333333334</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>948</v>
-      </c>
-      <c r="C181" t="n">
-        <v>948</v>
-      </c>
-      <c r="D181" t="n">
-        <v>948</v>
-      </c>
-      <c r="E181" t="n">
-        <v>948</v>
-      </c>
-      <c r="F181" t="n">
-        <v>161.259</v>
-      </c>
-      <c r="G181" t="n">
-        <v>936.3666666666667</v>
-      </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>948</v>
-      </c>
-      <c r="C182" t="n">
-        <v>948</v>
-      </c>
-      <c r="D182" t="n">
-        <v>948</v>
-      </c>
-      <c r="E182" t="n">
-        <v>948</v>
-      </c>
-      <c r="F182" t="n">
-        <v>3.741</v>
-      </c>
-      <c r="G182" t="n">
-        <v>936.6333333333333</v>
-      </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>947</v>
-      </c>
-      <c r="C183" t="n">
-        <v>947</v>
-      </c>
-      <c r="D183" t="n">
-        <v>947</v>
-      </c>
-      <c r="E183" t="n">
-        <v>947</v>
-      </c>
-      <c r="F183" t="n">
-        <v>167.0109</v>
-      </c>
-      <c r="G183" t="n">
-        <v>936.8166666666667</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>947</v>
-      </c>
-      <c r="C184" t="n">
-        <v>947</v>
-      </c>
-      <c r="D184" t="n">
-        <v>947</v>
-      </c>
-      <c r="E184" t="n">
-        <v>947</v>
-      </c>
-      <c r="F184" t="n">
-        <v>232.69</v>
-      </c>
-      <c r="G184" t="n">
-        <v>937.0666666666667</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>947</v>
-      </c>
-      <c r="C185" t="n">
-        <v>947</v>
-      </c>
-      <c r="D185" t="n">
-        <v>947</v>
-      </c>
-      <c r="E185" t="n">
-        <v>947</v>
-      </c>
-      <c r="F185" t="n">
-        <v>36.9292</v>
-      </c>
-      <c r="G185" t="n">
-        <v>937.3166666666667</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>947</v>
-      </c>
-      <c r="C186" t="n">
-        <v>947</v>
-      </c>
-      <c r="D186" t="n">
-        <v>947</v>
-      </c>
-      <c r="E186" t="n">
-        <v>947</v>
-      </c>
-      <c r="F186" t="n">
-        <v>134.4231</v>
-      </c>
-      <c r="G186" t="n">
-        <v>937.5666666666667</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>947</v>
-      </c>
-      <c r="C187" t="n">
-        <v>947</v>
-      </c>
-      <c r="D187" t="n">
-        <v>947</v>
-      </c>
-      <c r="E187" t="n">
-        <v>947</v>
-      </c>
-      <c r="F187" t="n">
-        <v>150.19</v>
-      </c>
-      <c r="G187" t="n">
-        <v>937.8333333333334</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>947</v>
-      </c>
-      <c r="C188" t="n">
-        <v>947</v>
-      </c>
-      <c r="D188" t="n">
-        <v>947</v>
-      </c>
-      <c r="E188" t="n">
-        <v>947</v>
-      </c>
-      <c r="F188" t="n">
-        <v>409.0308</v>
-      </c>
-      <c r="G188" t="n">
-        <v>938.0833333333334</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>944</v>
-      </c>
-      <c r="C189" t="n">
-        <v>944</v>
-      </c>
-      <c r="D189" t="n">
-        <v>944</v>
-      </c>
-      <c r="E189" t="n">
-        <v>944</v>
-      </c>
-      <c r="F189" t="n">
-        <v>1</v>
-      </c>
-      <c r="G189" t="n">
-        <v>938.2833333333333</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>947</v>
-      </c>
-      <c r="C190" t="n">
-        <v>947</v>
-      </c>
-      <c r="D190" t="n">
-        <v>947</v>
-      </c>
-      <c r="E190" t="n">
-        <v>947</v>
-      </c>
-      <c r="F190" t="n">
-        <v>1</v>
-      </c>
-      <c r="G190" t="n">
-        <v>938.5333333333333</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>947</v>
-      </c>
-      <c r="C191" t="n">
-        <v>947</v>
-      </c>
-      <c r="D191" t="n">
-        <v>947</v>
-      </c>
-      <c r="E191" t="n">
-        <v>947</v>
-      </c>
-      <c r="F191" t="n">
-        <v>529</v>
-      </c>
-      <c r="G191" t="n">
-        <v>938.7833333333333</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>947</v>
-      </c>
-      <c r="C192" t="n">
-        <v>947</v>
-      </c>
-      <c r="D192" t="n">
-        <v>947</v>
-      </c>
-      <c r="E192" t="n">
-        <v>947</v>
-      </c>
-      <c r="F192" t="n">
-        <v>87.5647</v>
-      </c>
-      <c r="G192" t="n">
-        <v>939.05</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>947</v>
-      </c>
-      <c r="C193" t="n">
-        <v>947</v>
-      </c>
-      <c r="D193" t="n">
-        <v>947</v>
-      </c>
-      <c r="E193" t="n">
-        <v>947</v>
-      </c>
-      <c r="F193" t="n">
-        <v>108.0842</v>
-      </c>
-      <c r="G193" t="n">
-        <v>939.3</v>
-      </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>948</v>
-      </c>
-      <c r="C194" t="n">
-        <v>948</v>
-      </c>
-      <c r="D194" t="n">
-        <v>948</v>
-      </c>
-      <c r="E194" t="n">
-        <v>948</v>
-      </c>
-      <c r="F194" t="n">
-        <v>99.40000000000001</v>
-      </c>
-      <c r="G194" t="n">
-        <v>939.5666666666667</v>
-      </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>948</v>
-      </c>
-      <c r="C195" t="n">
-        <v>948</v>
-      </c>
-      <c r="D195" t="n">
-        <v>948</v>
-      </c>
-      <c r="E195" t="n">
-        <v>948</v>
-      </c>
-      <c r="F195" t="n">
-        <v>535.1035000000001</v>
-      </c>
-      <c r="G195" t="n">
-        <v>939.8333333333334</v>
-      </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>949</v>
-      </c>
-      <c r="C196" t="n">
-        <v>949</v>
-      </c>
-      <c r="D196" t="n">
-        <v>949</v>
-      </c>
-      <c r="E196" t="n">
-        <v>949</v>
-      </c>
-      <c r="F196" t="n">
-        <v>175.8301</v>
-      </c>
-      <c r="G196" t="n">
-        <v>940.1</v>
-      </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>949</v>
-      </c>
-      <c r="C197" t="n">
-        <v>949</v>
-      </c>
-      <c r="D197" t="n">
-        <v>949</v>
-      </c>
-      <c r="E197" t="n">
-        <v>949</v>
-      </c>
-      <c r="F197" t="n">
-        <v>43.2109</v>
-      </c>
-      <c r="G197" t="n">
-        <v>940.3666666666667</v>
-      </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>951</v>
-      </c>
-      <c r="C198" t="n">
-        <v>951</v>
-      </c>
-      <c r="D198" t="n">
-        <v>951</v>
-      </c>
-      <c r="E198" t="n">
-        <v>951</v>
-      </c>
-      <c r="F198" t="n">
-        <v>221.5143</v>
-      </c>
-      <c r="G198" t="n">
-        <v>940.6666666666666</v>
-      </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>950</v>
-      </c>
-      <c r="C199" t="n">
-        <v>953</v>
-      </c>
-      <c r="D199" t="n">
-        <v>953</v>
-      </c>
-      <c r="E199" t="n">
-        <v>950</v>
-      </c>
-      <c r="F199" t="n">
-        <v>938.6384</v>
-      </c>
-      <c r="G199" t="n">
-        <v>941.0166666666667</v>
-      </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>950</v>
-      </c>
-      <c r="C200" t="n">
-        <v>948</v>
-      </c>
-      <c r="D200" t="n">
-        <v>950</v>
-      </c>
-      <c r="E200" t="n">
-        <v>948</v>
-      </c>
-      <c r="F200" t="n">
-        <v>824.7317</v>
-      </c>
-      <c r="G200" t="n">
-        <v>941.2833333333333</v>
-      </c>
-      <c r="H200" t="n">
+      <c r="I180" t="n">
         <v>0</v>
       </c>
     </row>
